--- a/0_0_Data/2_Processed_Data/1_GDP_series/yoy_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_GDP_series/yoy_combined_GDP_data.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER57"/>
+  <dimension ref="A1:ES57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:148">
+    <row r="1" spans="1:149">
       <c r="B1" s="1">
         <v>32508</v>
       </c>
@@ -817,18 +817,21 @@
       <c r="ER1" s="1">
         <v>45800</v>
       </c>
+      <c r="ES1" s="1">
+        <v>45891</v>
+      </c>
     </row>
-    <row r="2" spans="1:148">
+    <row r="2" spans="1:149">
       <c r="A2" s="1">
         <v>25933</v>
       </c>
     </row>
-    <row r="3" spans="1:148">
+    <row r="3" spans="1:149">
       <c r="A3" s="1">
         <v>26298</v>
       </c>
     </row>
-    <row r="4" spans="1:148">
+    <row r="4" spans="1:149">
       <c r="A4" s="1">
         <v>26664</v>
       </c>
@@ -1273,8 +1276,11 @@
       <c r="ER4">
         <v>4.249909189974588</v>
       </c>
+      <c r="ES4">
+        <v>4.249909189974566</v>
+      </c>
     </row>
-    <row r="5" spans="1:148">
+    <row r="5" spans="1:149">
       <c r="A5" s="1">
         <v>27029</v>
       </c>
@@ -1719,8 +1725,11 @@
       <c r="ER5">
         <v>4.988385598141676</v>
       </c>
+      <c r="ES5">
+        <v>4.988385598141676</v>
+      </c>
     </row>
-    <row r="6" spans="1:148">
+    <row r="6" spans="1:149">
       <c r="A6" s="1">
         <v>27394</v>
       </c>
@@ -2165,8 +2174,11 @@
       <c r="ER6">
         <v>0.9845677305160727</v>
       </c>
+      <c r="ES6">
+        <v>0.9845677305160505</v>
+      </c>
     </row>
-    <row r="7" spans="1:148">
+    <row r="7" spans="1:149">
       <c r="A7" s="1">
         <v>27759</v>
       </c>
@@ -2611,8 +2623,11 @@
       <c r="ER7">
         <v>-0.8708988333242074</v>
       </c>
+      <c r="ES7">
+        <v>-0.8708988333242074</v>
+      </c>
     </row>
-    <row r="8" spans="1:148">
+    <row r="8" spans="1:149">
       <c r="A8" s="1">
         <v>28125</v>
       </c>
@@ -3057,8 +3072,11 @@
       <c r="ER8">
         <v>4.431428887169853</v>
       </c>
+      <c r="ES8">
+        <v>4.431428887169875</v>
+      </c>
     </row>
-    <row r="9" spans="1:148">
+    <row r="9" spans="1:149">
       <c r="A9" s="1">
         <v>28490</v>
       </c>
@@ -3503,8 +3521,11 @@
       <c r="ER9">
         <v>3.518518518518499</v>
       </c>
+      <c r="ES9">
+        <v>3.518518518518499</v>
+      </c>
     </row>
-    <row r="10" spans="1:148">
+    <row r="10" spans="1:149">
       <c r="A10" s="1">
         <v>28855</v>
       </c>
@@ -3949,8 +3970,11 @@
       <c r="ER10">
         <v>3.102478916432405</v>
       </c>
+      <c r="ES10">
+        <v>3.102478916432405</v>
+      </c>
     </row>
-    <row r="11" spans="1:148">
+    <row r="11" spans="1:149">
       <c r="A11" s="1">
         <v>29220</v>
       </c>
@@ -4395,8 +4419,11 @@
       <c r="ER11">
         <v>4.293079516161047</v>
       </c>
+      <c r="ES11">
+        <v>4.293079516161025</v>
+      </c>
     </row>
-    <row r="12" spans="1:148">
+    <row r="12" spans="1:149">
       <c r="A12" s="1">
         <v>29586</v>
       </c>
@@ -4841,8 +4868,11 @@
       <c r="ER12">
         <v>1.283391957410429</v>
       </c>
+      <c r="ES12">
+        <v>1.283391957410407</v>
+      </c>
     </row>
-    <row r="13" spans="1:148">
+    <row r="13" spans="1:149">
       <c r="A13" s="1">
         <v>29951</v>
       </c>
@@ -5287,8 +5317,11 @@
       <c r="ER13">
         <v>0.6476440773418801</v>
       </c>
+      <c r="ES13">
+        <v>0.6476440773418135</v>
+      </c>
     </row>
-    <row r="14" spans="1:148">
+    <row r="14" spans="1:149">
       <c r="A14" s="1">
         <v>30316</v>
       </c>
@@ -5733,8 +5766,11 @@
       <c r="ER14">
         <v>-0.4989275389350012</v>
       </c>
+      <c r="ES14">
+        <v>-0.4989275389350234</v>
+      </c>
     </row>
-    <row r="15" spans="1:148">
+    <row r="15" spans="1:149">
       <c r="A15" s="1">
         <v>30681</v>
       </c>
@@ -6179,8 +6215,11 @@
       <c r="ER15">
         <v>1.466797881812631</v>
       </c>
+      <c r="ES15">
+        <v>1.466797881812631</v>
+      </c>
     </row>
-    <row r="16" spans="1:148">
+    <row r="16" spans="1:149">
       <c r="A16" s="1">
         <v>31047</v>
       </c>
@@ -6625,8 +6664,11 @@
       <c r="ER16">
         <v>2.900424903011278</v>
       </c>
+      <c r="ES16">
+        <v>2.900424903011278</v>
+      </c>
     </row>
-    <row r="17" spans="1:148">
+    <row r="17" spans="1:149">
       <c r="A17" s="1">
         <v>31412</v>
       </c>
@@ -7071,8 +7113,11 @@
       <c r="ER17">
         <v>2.60323159784559</v>
       </c>
+      <c r="ES17">
+        <v>2.603231597845612</v>
+      </c>
     </row>
-    <row r="18" spans="1:148">
+    <row r="18" spans="1:149">
       <c r="A18" s="1">
         <v>31777</v>
       </c>
@@ -7517,8 +7562,11 @@
       <c r="ER18">
         <v>2.279090113735815</v>
       </c>
+      <c r="ES18">
+        <v>2.279090113735771</v>
+      </c>
     </row>
-    <row r="19" spans="1:148">
+    <row r="19" spans="1:149">
       <c r="A19" s="1">
         <v>32142</v>
       </c>
@@ -7963,8 +8011,11 @@
       <c r="ER19">
         <v>1.278816132757399</v>
       </c>
+      <c r="ES19">
+        <v>1.278816132757377</v>
+      </c>
     </row>
-    <row r="20" spans="1:148">
+    <row r="20" spans="1:149">
       <c r="A20" s="1">
         <v>32508</v>
       </c>
@@ -8406,8 +8457,11 @@
       <c r="ER20">
         <v>3.441722972972983</v>
       </c>
+      <c r="ES20">
+        <v>3.441722972973005</v>
+      </c>
     </row>
-    <row r="21" spans="1:148">
+    <row r="21" spans="1:149">
       <c r="A21" s="1">
         <v>32873</v>
       </c>
@@ -8837,8 +8891,11 @@
       <c r="ER21">
         <v>4.033476219636634</v>
       </c>
+      <c r="ES21">
+        <v>4.033476219636656</v>
+      </c>
     </row>
-    <row r="22" spans="1:148">
+    <row r="22" spans="1:149">
       <c r="A22" s="1">
         <v>33238</v>
       </c>
@@ -9256,8 +9313,11 @@
       <c r="ER22">
         <v>5.482086096613425</v>
       </c>
+      <c r="ES22">
+        <v>5.482086096613403</v>
+      </c>
     </row>
-    <row r="23" spans="1:148">
+    <row r="23" spans="1:149">
       <c r="A23" s="1">
         <v>33603</v>
       </c>
@@ -9663,8 +9723,11 @@
       <c r="ER23">
         <v>5.2529761904762</v>
       </c>
+      <c r="ES23">
+        <v>5.241851727627922</v>
+      </c>
     </row>
-    <row r="24" spans="1:148">
+    <row r="24" spans="1:149">
       <c r="A24" s="1">
         <v>33969</v>
       </c>
@@ -10058,8 +10121,11 @@
       <c r="ER24">
         <v>1.60115933832885</v>
       </c>
+      <c r="ES24">
+        <v>1.590049821561079</v>
+      </c>
     </row>
-    <row r="25" spans="1:148">
+    <row r="25" spans="1:149">
       <c r="A25" s="1">
         <v>34334</v>
       </c>
@@ -10441,8 +10507,11 @@
       <c r="ER25">
         <v>-0.9914767785701772</v>
       </c>
+      <c r="ES25">
+        <v>-0.9947480087649119</v>
+      </c>
     </row>
-    <row r="26" spans="1:148">
+    <row r="26" spans="1:149">
       <c r="A26" s="1">
         <v>34699</v>
       </c>
@@ -10812,8 +10881,11 @@
       <c r="ER26">
         <v>2.656359803232644</v>
       </c>
+      <c r="ES26">
+        <v>2.662919374670669</v>
+      </c>
     </row>
-    <row r="27" spans="1:148">
+    <row r="27" spans="1:149">
       <c r="A27" s="1">
         <v>35064</v>
       </c>
@@ -11171,8 +11243,11 @@
       <c r="ER27">
         <v>1.577902519167562</v>
       </c>
+      <c r="ES27">
+        <v>1.584368476884657</v>
+      </c>
     </row>
-    <row r="28" spans="1:148">
+    <row r="28" spans="1:149">
       <c r="A28" s="1">
         <v>35430</v>
       </c>
@@ -11518,8 +11593,11 @@
       <c r="ER28">
         <v>1.064797654749472</v>
       </c>
+      <c r="ES28">
+        <v>1.064474836623308</v>
+      </c>
     </row>
-    <row r="29" spans="1:148">
+    <row r="29" spans="1:149">
       <c r="A29" s="1">
         <v>35795</v>
       </c>
@@ -11853,8 +11931,11 @@
       <c r="ER29">
         <v>1.937118661020909</v>
       </c>
+      <c r="ES29">
+        <v>1.929871341910538</v>
+      </c>
     </row>
-    <row r="30" spans="1:148">
+    <row r="30" spans="1:149">
       <c r="A30" s="1">
         <v>36160</v>
       </c>
@@ -12176,8 +12257,11 @@
       <c r="ER30">
         <v>1.88395368613854</v>
       </c>
+      <c r="ES30">
+        <v>1.886792452830188</v>
+      </c>
     </row>
-    <row r="31" spans="1:148">
+    <row r="31" spans="1:149">
       <c r="A31" s="1">
         <v>36525</v>
       </c>
@@ -12487,8 +12571,11 @@
       <c r="ER31">
         <v>1.983948635634003</v>
       </c>
+      <c r="ES31">
+        <v>1.983439245137664</v>
+      </c>
     </row>
-    <row r="32" spans="1:148">
+    <row r="32" spans="1:149">
       <c r="A32" s="1">
         <v>36891</v>
       </c>
@@ -12786,8 +12873,11 @@
       <c r="ER32">
         <v>3.110047846889974</v>
       </c>
+      <c r="ES32">
+        <v>3.109264853977822</v>
+      </c>
     </row>
-    <row r="33" spans="1:148">
+    <row r="33" spans="1:149">
       <c r="A33" s="1">
         <v>37256</v>
       </c>
@@ -13073,8 +13163,11 @@
       <c r="ER33">
         <v>1.749297838563924</v>
       </c>
+      <c r="ES33">
+        <v>1.767183494078894</v>
+      </c>
     </row>
-    <row r="34" spans="1:148">
+    <row r="34" spans="1:149">
       <c r="A34" s="1">
         <v>37621</v>
       </c>
@@ -13348,8 +13441,11 @@
       <c r="ER34">
         <v>-0.1860241831437959</v>
       </c>
+      <c r="ES34">
+        <v>-0.2039408571514301</v>
+      </c>
     </row>
-    <row r="35" spans="1:148">
+    <row r="35" spans="1:149">
       <c r="A35" s="1">
         <v>37986</v>
       </c>
@@ -13611,8 +13707,11 @@
       <c r="ER35">
         <v>-0.5440827246220303</v>
       </c>
+      <c r="ES35">
+        <v>-0.5379413974455294</v>
+      </c>
     </row>
-    <row r="36" spans="1:148">
+    <row r="36" spans="1:149">
       <c r="A36" s="1">
         <v>38352</v>
       </c>
@@ -13862,8 +13961,11 @@
       <c r="ER36">
         <v>0.7042253521126973</v>
       </c>
+      <c r="ES36">
+        <v>0.6949480299734079</v>
+      </c>
     </row>
-    <row r="37" spans="1:148">
+    <row r="37" spans="1:149">
       <c r="A37" s="1">
         <v>38717</v>
       </c>
@@ -14101,8 +14203,11 @@
       <c r="ER37">
         <v>1.047450403673555</v>
       </c>
+      <c r="ES37">
+        <v>1.056232371121646</v>
+      </c>
     </row>
-    <row r="38" spans="1:148">
+    <row r="38" spans="1:149">
       <c r="A38" s="1">
         <v>39082</v>
       </c>
@@ -14328,8 +14433,11 @@
       <c r="ER38">
         <v>4.045384341214242</v>
       </c>
+      <c r="ES38">
+        <v>4.038244551339143</v>
+      </c>
     </row>
-    <row r="39" spans="1:148">
+    <row r="39" spans="1:149">
       <c r="A39" s="1">
         <v>39447</v>
       </c>
@@ -14543,8 +14651,11 @@
       <c r="ER39">
         <v>2.991721381672874</v>
       </c>
+      <c r="ES39">
+        <v>2.996746389634097</v>
+      </c>
     </row>
-    <row r="40" spans="1:148">
+    <row r="40" spans="1:149">
       <c r="A40" s="1">
         <v>39813</v>
       </c>
@@ -14746,8 +14857,11 @@
       <c r="ER40">
         <v>0.6402793946449714</v>
       </c>
+      <c r="ES40">
+        <v>0.6207049434715506</v>
+      </c>
     </row>
-    <row r="41" spans="1:148">
+    <row r="41" spans="1:149">
       <c r="A41" s="1">
         <v>40178</v>
       </c>
@@ -14937,8 +15051,11 @@
       <c r="ER41">
         <v>-5.494505494505509</v>
       </c>
+      <c r="ES41">
+        <v>-5.499559374311536</v>
+      </c>
     </row>
-    <row r="42" spans="1:148">
+    <row r="42" spans="1:149">
       <c r="A42" s="1">
         <v>40543</v>
       </c>
@@ -15116,8 +15233,11 @@
       <c r="ER42">
         <v>4.007110800256442</v>
       </c>
+      <c r="ES42">
+        <v>4.006994025936184</v>
+      </c>
     </row>
-    <row r="43" spans="1:148">
+    <row r="43" spans="1:149">
       <c r="A43" s="1">
         <v>40908</v>
       </c>
@@ -15283,8 +15403,11 @@
       <c r="ER43">
         <v>3.838717812211057</v>
       </c>
+      <c r="ES43">
+        <v>3.833006444382181</v>
+      </c>
     </row>
-    <row r="44" spans="1:148">
+    <row r="44" spans="1:149">
       <c r="A44" s="1">
         <v>41274</v>
       </c>
@@ -15438,8 +15561,11 @@
       <c r="ER44">
         <v>0.6503143635824049</v>
       </c>
+      <c r="ES44">
+        <v>0.6530303848022223</v>
+      </c>
     </row>
-    <row r="45" spans="1:148">
+    <row r="45" spans="1:149">
       <c r="A45" s="1">
         <v>41639</v>
       </c>
@@ -15581,8 +15707,11 @@
       <c r="ER45">
         <v>0.5067024128686759</v>
       </c>
+      <c r="ES45">
+        <v>0.5093833780160928</v>
+      </c>
     </row>
-    <row r="46" spans="1:148">
+    <row r="46" spans="1:149">
       <c r="A46" s="1">
         <v>42004</v>
       </c>
@@ -15712,8 +15841,11 @@
       <c r="ER46">
         <v>2.168636133265789</v>
       </c>
+      <c r="ES46">
+        <v>2.173913043478248</v>
+      </c>
     </row>
-    <row r="47" spans="1:148">
+    <row r="47" spans="1:149">
       <c r="A47" s="1">
         <v>42369</v>
       </c>
@@ -15831,8 +15963,11 @@
       <c r="ER47">
         <v>1.404626390266817</v>
       </c>
+      <c r="ES47">
+        <v>1.417569507897132</v>
+      </c>
     </row>
-    <row r="48" spans="1:148">
+    <row r="48" spans="1:149">
       <c r="A48" s="1">
         <v>42735</v>
       </c>
@@ -15938,8 +16073,11 @@
       <c r="ER48">
         <v>2.21421215242017</v>
       </c>
+      <c r="ES48">
+        <v>2.136532125205948</v>
+      </c>
     </row>
-    <row r="49" spans="1:148">
+    <row r="49" spans="1:149">
       <c r="A49" s="1">
         <v>43100</v>
       </c>
@@ -16033,8 +16171,11 @@
       <c r="ER49">
         <v>3.002518891687656</v>
       </c>
+      <c r="ES49">
+        <v>3.094914058168241</v>
+      </c>
     </row>
-    <row r="50" spans="1:148">
+    <row r="50" spans="1:149">
       <c r="A50" s="1">
         <v>43465</v>
       </c>
@@ -16116,8 +16257,11 @@
       <c r="ER50">
         <v>1.13469627310967</v>
       </c>
+      <c r="ES50">
+        <v>1.151420329536013</v>
+      </c>
     </row>
-    <row r="51" spans="1:148">
+    <row r="51" spans="1:149">
       <c r="A51" s="1">
         <v>43830</v>
       </c>
@@ -16187,8 +16331,11 @@
       <c r="ER51">
         <v>1.027662249734007</v>
       </c>
+      <c r="ES51">
+        <v>1.010223070788152</v>
+      </c>
     </row>
-    <row r="52" spans="1:148">
+    <row r="52" spans="1:149">
       <c r="A52" s="1">
         <v>44196</v>
       </c>
@@ -16246,8 +16393,11 @@
       <c r="ER52">
         <v>-4.45657116871303</v>
       </c>
+      <c r="ES52">
+        <v>-4.486182557722218</v>
+      </c>
     </row>
-    <row r="53" spans="1:148">
+    <row r="53" spans="1:149">
       <c r="A53" s="1">
         <v>44561</v>
       </c>
@@ -16293,8 +16443,11 @@
       <c r="ER53">
         <v>3.624840301610766</v>
       </c>
+      <c r="ES53">
+        <v>3.865230460921842</v>
+      </c>
     </row>
-    <row r="54" spans="1:148">
+    <row r="54" spans="1:149">
       <c r="A54" s="1">
         <v>44926</v>
       </c>
@@ -16328,8 +16481,11 @@
       <c r="ER54">
         <v>1.445631678189807</v>
       </c>
+      <c r="ES54">
+        <v>1.886018860188643</v>
+      </c>
     </row>
-    <row r="55" spans="1:148">
+    <row r="55" spans="1:149">
       <c r="A55" s="1">
         <v>45291</v>
       </c>
@@ -16351,8 +16507,11 @@
       <c r="ER55">
         <v>-0.06434086359737856</v>
       </c>
+      <c r="ES55">
+        <v>-0.6770031956444766</v>
+      </c>
     </row>
-    <row r="56" spans="1:148">
+    <row r="56" spans="1:149">
       <c r="A56" s="1">
         <v>45657</v>
       </c>
@@ -16362,8 +16521,11 @@
       <c r="ER56">
         <v>-0.2026849798507313</v>
       </c>
+      <c r="ES56">
+        <v>-0.4695059462808793</v>
+      </c>
     </row>
-    <row r="57" spans="1:148">
+    <row r="57" spans="1:149">
       <c r="A57" s="1">
         <v>46022</v>
       </c>
